--- a/natmiOut/OldD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Agtr2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +531,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.656571054115</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H2">
-        <v>110.656571054115</v>
+        <v>341.781326</v>
       </c>
       <c r="I2">
-        <v>0.4214789750305316</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J2">
-        <v>0.4214789750305316</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.58248163700329</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N2">
-        <v>3.58248163700329</v>
+        <v>11.230598</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="Q2">
-        <v>396.4251338151168</v>
+        <v>426.4898529125497</v>
       </c>
       <c r="R2">
-        <v>396.4251338151168</v>
+        <v>3838.408676212948</v>
       </c>
       <c r="S2">
-        <v>0.4214789750305316</v>
+        <v>0.4104062073453176</v>
       </c>
       <c r="T2">
-        <v>0.4214789750305316</v>
+        <v>0.4902719491850854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.5908052777357</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H3">
-        <v>24.5908052777357</v>
+        <v>341.781326</v>
       </c>
       <c r="I3">
-        <v>0.09366373189502517</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J3">
-        <v>0.09366373189502517</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.58248163700329</v>
+        <v>0.07524</v>
       </c>
       <c r="N3">
-        <v>3.58248163700329</v>
+        <v>0.22572</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="Q3">
-        <v>88.09610834661174</v>
+        <v>8.57187565608</v>
       </c>
       <c r="R3">
-        <v>88.09610834661174</v>
+        <v>77.14688090471999</v>
       </c>
       <c r="S3">
-        <v>0.09366373189502517</v>
+        <v>0.008248615890443687</v>
       </c>
       <c r="T3">
-        <v>0.09366373189502517</v>
+        <v>0.009853810488992436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +655,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>127.296137365598</v>
+        <v>25.210481</v>
       </c>
       <c r="H4">
-        <v>127.296137365598</v>
+        <v>75.631443</v>
       </c>
       <c r="I4">
-        <v>0.4848572930744433</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J4">
-        <v>0.4848572930744433</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.58248163700329</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N4">
-        <v>3.58248163700329</v>
+        <v>11.230598</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="Q4">
-        <v>456.0360745737032</v>
+        <v>94.37625916587935</v>
       </c>
       <c r="R4">
-        <v>456.0360745737032</v>
+        <v>849.3863324929141</v>
       </c>
       <c r="S4">
-        <v>0.4848572930744433</v>
+        <v>0.0908171726084402</v>
       </c>
       <c r="T4">
-        <v>0.4848572930744433</v>
+        <v>0.1084903479463085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>25.210481</v>
+      </c>
+      <c r="H5">
+        <v>75.631443</v>
+      </c>
+      <c r="I5">
+        <v>0.09264247631899748</v>
+      </c>
+      <c r="J5">
+        <v>0.110670858845055</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07524</v>
+      </c>
+      <c r="N5">
+        <v>0.22572</v>
+      </c>
+      <c r="O5">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="P5">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="Q5">
+        <v>1.89683659044</v>
+      </c>
+      <c r="R5">
+        <v>17.07152931396</v>
+      </c>
+      <c r="S5">
+        <v>0.001825303710557276</v>
+      </c>
+      <c r="T5">
+        <v>0.002180510898746509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>132.9889985</v>
+      </c>
+      <c r="H6">
+        <v>265.977997</v>
+      </c>
+      <c r="I6">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J6">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N6">
+        <v>11.230598</v>
+      </c>
+      <c r="O6">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="P6">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="Q6">
+        <v>497.8486601920344</v>
+      </c>
+      <c r="R6">
+        <v>2987.091961152206</v>
+      </c>
+      <c r="S6">
+        <v>0.4790739546698096</v>
+      </c>
+      <c r="T6">
+        <v>0.3815350374921736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>132.9889985</v>
+      </c>
+      <c r="H7">
+        <v>265.977997</v>
+      </c>
+      <c r="I7">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J7">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07524</v>
+      </c>
+      <c r="N7">
+        <v>0.22572</v>
+      </c>
+      <c r="O7">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="P7">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="Q7">
+        <v>10.00609224714</v>
+      </c>
+      <c r="R7">
+        <v>60.03655348284001</v>
+      </c>
+      <c r="S7">
+        <v>0.009628745775431498</v>
+      </c>
+      <c r="T7">
+        <v>0.007668343988693515</v>
       </c>
     </row>
   </sheetData>
